--- a/data/trans_camb/P16B06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Clase-trans_camb.xlsx
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 34,14</t>
+          <t>-37,95; 34,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,27</t>
+          <t>0,0; 50,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 0,0</t>
+          <t>-52,18; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 13,29</t>
+          <t>-28,56; 13,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,61</t>
+          <t>0,0; 27,6</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 52,77</t>
+          <t>-41,67; 57,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 98,8</t>
+          <t>0,0; 101,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 0,0</t>
+          <t>-52,18; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 15,29</t>
+          <t>-31,65; 15,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,01</t>
+          <t>0,0; 38,12</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,69</t>
+          <t>0,0; 57,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,91</t>
+          <t>0,0; 53,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 0,0</t>
+          <t>-32,36; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,12</t>
+          <t>0,0; 33,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 20,6</t>
+          <t>-9,24; 22,44</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 111,66</t>
+          <t>0,0; 135,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 116,88</t>
+          <t>0,0; 107,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 0,0</t>
+          <t>-32,36; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,31</t>
+          <t>0,0; 49,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 25,57</t>
+          <t>-9,27; 28,7</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 0,0</t>
+          <t>-19,15; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 0,0</t>
+          <t>-15,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 0,0</t>
+          <t>-19,15; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 0,0</t>
+          <t>-15,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,49</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 9,91</t>
+          <t>-6,15; 9,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 29,12</t>
+          <t>3,49; 31,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 23,93</t>
+          <t>-4,67; 25,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,97</t>
+          <t>1,73; 16,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 11,73</t>
+          <t>-4,17; 12,03</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,76</t>
+          <t>0,0; 17,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 11,11</t>
+          <t>-6,3; 10,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 41,05</t>
+          <t>3,62; 46,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 32,61</t>
+          <t>-4,67; 36,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 20,43</t>
+          <t>1,76; 19,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 13,93</t>
+          <t>-4,18; 13,97</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,84</t>
+          <t>0,0; 61,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 50,49</t>
+          <t>-12,57; 52,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 0,0</t>
+          <t>-7,76; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,04</t>
+          <t>-1,32; 25,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 25,0</t>
+          <t>-4,65; 23,81</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 198,99</t>
+          <t>0,0; 159,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 120,93</t>
+          <t>-12,79; 139,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 0,0</t>
+          <t>-7,76; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,12</t>
+          <t>-1,32; 34,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 34,98</t>
+          <t>-4,68; 31,74</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,75</t>
+          <t>-1,65; 11,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 8,04</t>
+          <t>-5,26; 8,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,75</t>
+          <t>-1,65; 11,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,34</t>
+          <t>-5,28; 8,36</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 12,2</t>
+          <t>-1,69; 13,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 8,96</t>
+          <t>-5,39; 9,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 12,2</t>
+          <t>-1,69; 13,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 9,36</t>
+          <t>-5,38; 9,16</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 16,92</t>
+          <t>-0,14; 16,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,6</t>
+          <t>-2,77; 14,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,87</t>
+          <t>-0,69; 7,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,12</t>
+          <t>-3,04; 5,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,85</t>
+          <t>0,96; 8,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,8</t>
+          <t>-1,47; 6,59</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 20,92</t>
+          <t>-0,1; 20,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 17,99</t>
+          <t>-2,93; 17,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,68</t>
+          <t>-0,71; 8,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,76</t>
+          <t>-3,12; 6,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,95</t>
+          <t>1,05; 9,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,61</t>
+          <t>-1,51; 7,35</t>
         </is>
       </c>
     </row>
